--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Jamming_test(Finished)/Compare_Figure_500.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Jamming_test(Finished)/Compare_Figure_500.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Jamming_test(SWIB)\Consecutive\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Jamming_test(Finished)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C945A39-0BF5-4982-A1C4-A4FBDBA9194A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CBE5E8-61BE-4BB9-8E2B-C06CC87798D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3186,16 +3186,16 @@
         <v>0.1</v>
       </c>
       <c r="B2" s="1">
-        <v>3.6291150000000001</v>
+        <v>1.0417400000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>3.822835</v>
+        <v>7.64567</v>
       </c>
       <c r="D2" s="1">
-        <v>564</v>
+        <v>1964</v>
       </c>
       <c r="E2" s="1">
-        <v>535</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3203,16 +3203,16 @@
         <v>0.2</v>
       </c>
       <c r="B3" s="1">
-        <v>2.41995</v>
+        <v>1.0400799999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1.9902900000000003</v>
+        <v>3.9805800000000007</v>
       </c>
       <c r="D3" s="1">
-        <v>845</v>
+        <v>1968</v>
       </c>
       <c r="E3" s="1">
-        <v>1028</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3220,16 +3220,16 @@
         <v>0.3</v>
       </c>
       <c r="B4" s="1">
-        <v>1.5465450000000001</v>
+        <v>1.08423</v>
       </c>
       <c r="C4" s="1">
-        <v>1.2905800000000001</v>
+        <v>2.5811600000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>1323</v>
+        <v>1887</v>
       </c>
       <c r="E4" s="1">
-        <v>1586</v>
+        <v>793</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3237,16 +3237,16 @@
         <v>0.4</v>
       </c>
       <c r="B5" s="1">
-        <v>1.372185</v>
+        <v>0.99</v>
       </c>
       <c r="C5" s="1">
-        <v>1.1516200000000001</v>
+        <v>2.3032400000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>1491</v>
+        <v>2067</v>
       </c>
       <c r="E5" s="1">
-        <v>1777</v>
+        <v>888</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3254,16 +3254,16 @@
         <v>0.5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.93966000000000005</v>
+        <v>1.1041000000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>0.96017999999999992</v>
+        <v>1.9203599999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>2178</v>
+        <v>1853</v>
       </c>
       <c r="E6" s="1">
-        <v>2131</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3271,16 +3271,16 @@
         <v>0.6</v>
       </c>
       <c r="B7" s="1">
-        <v>0.92596500000000004</v>
+        <v>1.0394099999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>0.707125</v>
+        <v>1.41425</v>
       </c>
       <c r="D7" s="1">
-        <v>2210</v>
+        <v>1969</v>
       </c>
       <c r="E7" s="1">
-        <v>2894</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3288,16 +3288,16 @@
         <v>0.7</v>
       </c>
       <c r="B8" s="1">
-        <v>0.81527499999999997</v>
+        <v>1.0835900000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>0.78842500000000004</v>
+        <v>1.5768500000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>2510</v>
+        <v>1889</v>
       </c>
       <c r="E8" s="1">
-        <v>2596</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3305,16 +3305,16 @@
         <v>0.8</v>
       </c>
       <c r="B9" s="1">
-        <v>0.62792000000000003</v>
+        <v>1.04877</v>
       </c>
       <c r="C9" s="1">
-        <v>0.60711000000000004</v>
+        <v>1.2142200000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>3259</v>
+        <v>1951</v>
       </c>
       <c r="E9" s="1">
-        <v>3371</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3322,16 +3322,16 @@
         <v>0.9</v>
       </c>
       <c r="B10" s="1">
-        <v>0.61016499999999996</v>
+        <v>1.0122200000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>0.55527499999999996</v>
+        <v>1.1105499999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>3354</v>
+        <v>2022</v>
       </c>
       <c r="E10" s="1">
-        <v>3686</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3339,16 +3339,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>0.57955500000000004</v>
+        <v>0.92896000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>0.51839999999999997</v>
+        <v>1.0367999999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>3532</v>
+        <v>2203</v>
       </c>
       <c r="E11" s="1">
-        <v>3948</v>
+        <v>1974</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Jamming_test(Finished)/Compare_Figure_500.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Jamming_test(Finished)/Compare_Figure_500.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Jamming_test(Finished)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CBE5E8-61BE-4BB9-8E2B-C06CC87798D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A45008-F1AD-4A9E-95CB-034CCD1F0630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3156,7 +3156,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3186,16 +3186,16 @@
         <v>0.1</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0417400000000001</v>
+        <v>0.72157499999999997</v>
       </c>
       <c r="C2" s="1">
-        <v>7.64567</v>
+        <v>5.2486750000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>1964</v>
+        <v>2836</v>
       </c>
       <c r="E2" s="1">
-        <v>267</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3203,16 +3203,16 @@
         <v>0.2</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0400799999999999</v>
+        <v>0.76615500000000003</v>
       </c>
       <c r="C3" s="1">
-        <v>3.9805800000000007</v>
+        <v>3.02318</v>
       </c>
       <c r="D3" s="1">
-        <v>1968</v>
+        <v>2671</v>
       </c>
       <c r="E3" s="1">
-        <v>514</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3220,16 +3220,16 @@
         <v>0.3</v>
       </c>
       <c r="B4" s="1">
-        <v>1.08423</v>
+        <v>0.78103999999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>2.5811600000000001</v>
+        <v>2.1718999999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>1887</v>
+        <v>2620</v>
       </c>
       <c r="E4" s="1">
-        <v>793</v>
+        <v>942</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3237,16 +3237,16 @@
         <v>0.4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.99</v>
+        <v>0.79347500000000004</v>
       </c>
       <c r="C5" s="1">
-        <v>2.3032400000000002</v>
+        <v>1.696375</v>
       </c>
       <c r="D5" s="1">
-        <v>2067</v>
+        <v>2579</v>
       </c>
       <c r="E5" s="1">
-        <v>888</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3254,16 +3254,16 @@
         <v>0.5</v>
       </c>
       <c r="B6" s="1">
-        <v>1.1041000000000001</v>
+        <v>0.78754000000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>1.9203599999999998</v>
+        <v>1.309455</v>
       </c>
       <c r="D6" s="1">
-        <v>1853</v>
+        <v>2599</v>
       </c>
       <c r="E6" s="1">
-        <v>1065</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3271,16 +3271,16 @@
         <v>0.6</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0394099999999999</v>
+        <v>0.77927500000000005</v>
       </c>
       <c r="C7" s="1">
-        <v>1.41425</v>
+        <v>1.1018600000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>1969</v>
+        <v>2626</v>
       </c>
       <c r="E7" s="1">
-        <v>1447</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3288,16 +3288,16 @@
         <v>0.7</v>
       </c>
       <c r="B8" s="1">
-        <v>1.0835900000000001</v>
+        <v>0.78785000000000005</v>
       </c>
       <c r="C8" s="1">
-        <v>1.5768500000000001</v>
+        <v>1.0570949999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>1889</v>
+        <v>2598</v>
       </c>
       <c r="E8" s="1">
-        <v>1298</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3305,16 +3305,16 @@
         <v>0.8</v>
       </c>
       <c r="B9" s="1">
-        <v>1.04877</v>
+        <v>0.71262000000000003</v>
       </c>
       <c r="C9" s="1">
-        <v>1.2142200000000001</v>
+        <v>0.94611500000000004</v>
       </c>
       <c r="D9" s="1">
-        <v>1951</v>
+        <v>2872</v>
       </c>
       <c r="E9" s="1">
-        <v>1685</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3322,16 +3322,16 @@
         <v>0.9</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0122200000000001</v>
+        <v>0.71631</v>
       </c>
       <c r="C10" s="1">
-        <v>1.1105499999999999</v>
+        <v>0.83567999999999987</v>
       </c>
       <c r="D10" s="1">
-        <v>2022</v>
+        <v>2857</v>
       </c>
       <c r="E10" s="1">
-        <v>1843</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3339,16 +3339,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>0.92896000000000001</v>
+        <v>0.70784000000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>1.0367999999999999</v>
+        <v>0.75407500000000005</v>
       </c>
       <c r="D11" s="1">
-        <v>2203</v>
+        <v>2891</v>
       </c>
       <c r="E11" s="1">
-        <v>1974</v>
+        <v>2714</v>
       </c>
     </row>
   </sheetData>
